--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11247_DecisionTableRetActionValidation_Positive.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-11247_DecisionTableRetActionValidation_Positive.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\openl-from-git\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334D775B-289A-4C0C-87AC-B5E7FC032CD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2250D40-6D33-4DAD-9A34-4E3700C70E5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="855" windowWidth="21165" windowHeight="13395" xr2:uid="{69DD8098-E143-4884-9C95-043F2CD09D2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69DD8098-E143-4884-9C95-043F2CD09D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>= 30</t>
   </si>
   <si>
-    <t>= new Integer (20)</t>
-  </si>
-  <si>
     <t>Test testCast</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>= 300</t>
   </si>
   <si>
-    <t>= new Integer (200)</t>
-  </si>
-  <si>
     <t>Integer g</t>
   </si>
   <si>
@@ -136,6 +130,12 @@
   </si>
   <si>
     <t>,300</t>
+  </si>
+  <si>
+    <t>= Integer.valueOf(20)</t>
+  </si>
+  <si>
+    <t>= Integer.valueOf(200)</t>
   </si>
 </sst>
 </file>
@@ -175,13 +175,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -197,9 +197,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,7 +237,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -343,7 +343,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -495,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD2B92B-A2FD-481F-9D0A-55E6E37ACC42}">
   <dimension ref="B3:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,10 +506,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -553,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -569,29 +569,29 @@
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
         <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
         <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -624,11 +624,11 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="B28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -638,12 +638,12 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
@@ -703,10 +703,10 @@
         <v>4</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
@@ -719,7 +719,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
@@ -727,32 +727,32 @@
         <v>7</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="2"/>
+      <c r="B43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
         <v>11</v>
-      </c>
-      <c r="C44" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
         <v>11</v>
-      </c>
-      <c r="C45" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -806,11 +806,11 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
+      <c r="B59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -820,12 +820,12 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -836,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
@@ -877,7 +877,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
@@ -885,10 +885,10 @@
         <v>4</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
@@ -901,7 +901,7 @@
         <v>6</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
@@ -909,31 +909,31 @@
         <v>7</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
         <v>11</v>
-      </c>
-      <c r="C75" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
         <v>11</v>
-      </c>
-      <c r="C76" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
@@ -987,49 +987,49 @@
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B87" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
+      <c r="B87" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>0</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="C90" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>2</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92">
@@ -1047,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
@@ -1055,13 +1055,13 @@
         <v>3</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
@@ -1069,10 +1069,10 @@
         <v>4</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E95" s="1"/>
     </row>
@@ -1086,7 +1086,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
@@ -1094,34 +1094,34 @@
         <v>7</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
         <v>11</v>
-      </c>
-      <c r="C103" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
         <v>11</v>
-      </c>
-      <c r="C104" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
@@ -1145,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
@@ -1165,8 +1165,8 @@
       <c r="B110">
         <v>6</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>36</v>
+      <c r="C110" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
